--- a/experiment/nonconvex/MitsosBarton2006Ex323/Experimentos_Generador/MitsosBarton2006Ex323__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex323/Experimentos_Generador/MitsosBarton2006Ex323__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -57,34 +57,34 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>-1 - x</t>
-  </si>
-  <si>
-    <t>-1.1194321621180021</t>
+    <t>2.09 - x</t>
+  </si>
+  <si>
+    <t>-3.09</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.08752045581389443</t>
-  </si>
-  <si>
-    <t>-1 + x</t>
-  </si>
-  <si>
-    <t>-0.8805678378819979</t>
-  </si>
-  <si>
-    <t>0.6949971627976752</t>
-  </si>
-  <si>
-    <t>1 + x - y - 9(x^2)</t>
-  </si>
-  <si>
-    <t>1.7407650125976661</t>
-  </si>
-  <si>
-    <t>0.5069075554161596</t>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>-2.09 + x</t>
+  </si>
+  <si>
+    <t>1.0899999999999999</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>41.02289999999999 + x - y - 9(x^2)</t>
+  </si>
+  <si>
+    <t>-40.02289999999999</t>
+  </si>
+  <si>
+    <t>0.58</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -96,79 +96,76 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>0.38628290393820475y + (-0.5 + x)*(y^2)</t>
-  </si>
-  <si>
-    <t>-0.5035033058244697</t>
+    <t>12.69799662447257 - 9.383578059071729y + (-0.5 + x)*(y^2)</t>
+  </si>
+  <si>
+    <t>-12.69799662447257</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.41442099573459057</t>
-  </si>
-  <si>
-    <t>0.660511633880941</t>
-  </si>
-  <si>
-    <t>0.275777907320651</t>
-  </si>
-  <si>
-    <t>-1 + 0.7118047205802501y</t>
-  </si>
-  <si>
-    <t>-1.53364656371869</t>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>5.206 - 1.37y</t>
+  </si>
+  <si>
+    <t>-6.206</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.4403218489935702</t>
-  </si>
-  <si>
-    <t>0.8679990918222603</t>
-  </si>
-  <si>
-    <t>0.8622719872121751</t>
-  </si>
-  <si>
-    <t>-1 + 1.9223015906724727y</t>
-  </si>
-  <si>
-    <t>-2.441167231171352</t>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>-2.4950632911392407 + 0.6329113924050633y</t>
+  </si>
+  <si>
+    <t>1.4050632911392404</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.465355066850616</t>
-  </si>
-  <si>
-    <t>0.2886499030857106</t>
-  </si>
-  <si>
-    <t>0.553998244052883</t>
-  </si>
-  <si>
-    <t>0.11943216211800217</t>
-  </si>
-  <si>
-    <t>-0.7497092226132909</t>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>2.09</t>
+  </si>
+  <si>
+    <t>3.8</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-2.604540935000523</t>
+    <t>-2.1753227848101258</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-1.2168130389832452</t>
-  </si>
-  <si>
-    <t>-1.2069572457097824</t>
+    <t>-84.36468</t>
+  </si>
+  <si>
+    <t>-18.175055687763706</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -664,47 +661,47 @@
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -730,10 +727,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
         <v>39</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -751,12 +748,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -774,17 +771,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -802,12 +799,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.2881952794197499</v>
+        <v>2.37</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/nonconvex/MitsosBarton2006Ex323/Experimentos_Generador/MitsosBarton2006Ex323__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex323/Experimentos_Generador/MitsosBarton2006Ex323__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -39,133 +39,136 @@
     <t>Follower_Expr</t>
   </si>
   <si>
+    <t>x^2</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>Function_Evaluation</t>
+  </si>
+  <si>
+    <t>Restriction_Set_Type</t>
+  </si>
+  <si>
+    <t>MIU_value</t>
+  </si>
+  <si>
+    <t>2.89 - x</t>
+  </si>
+  <si>
+    <t>-3.89</t>
+  </si>
+  <si>
+    <t>J_0_g</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>-2.89 + x</t>
+  </si>
+  <si>
+    <t>1.8900000000000001</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>72.5789 + x - y - 9(x^2)</t>
+  </si>
+  <si>
+    <t>-71.5789</t>
+  </si>
+  <si>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>Lambda_value</t>
+  </si>
+  <si>
+    <t>Beta_value</t>
+  </si>
+  <si>
+    <t>Gamma_value</t>
+  </si>
+  <si>
+    <t>-1.1182333333333334 + 3.0104444444444445y + (-0.5 + x)*(y^2)</t>
+  </si>
+  <si>
+    <t>1.1182333333333334</t>
+  </si>
+  <si>
+    <t>J_0_L0_v</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>3.4000000000000004</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>0.29400000000000004 - 0.98y</t>
+  </si>
+  <si>
+    <t>-1.294</t>
+  </si>
+  <si>
+    <t>J_0_LP_v</t>
+  </si>
+  <si>
+    <t>6.800000000000001</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>-2.1942424242424243 + 4.747474747474747y</t>
+  </si>
+  <si>
+    <t>0.42424242424242453</t>
+  </si>
+  <si>
+    <t>J_Ne_L0_v</t>
+  </si>
+  <si>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>9.399999999999999</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
-    <t>y</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>Function_Evaluation</t>
-  </si>
-  <si>
-    <t>Restriction_Set_Type</t>
-  </si>
-  <si>
-    <t>MIU_value</t>
-  </si>
-  <si>
-    <t>2.09 - x</t>
-  </si>
-  <si>
-    <t>-3.09</t>
-  </si>
-  <si>
-    <t>J_0_g</t>
-  </si>
-  <si>
-    <t>0.86</t>
-  </si>
-  <si>
-    <t>-2.09 + x</t>
-  </si>
-  <si>
-    <t>1.0899999999999999</t>
-  </si>
-  <si>
-    <t>0.62</t>
-  </si>
-  <si>
-    <t>41.02289999999999 + x - y - 9(x^2)</t>
-  </si>
-  <si>
-    <t>-40.02289999999999</t>
-  </si>
-  <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>Lambda_value</t>
-  </si>
-  <si>
-    <t>Beta_value</t>
-  </si>
-  <si>
-    <t>Gamma_value</t>
-  </si>
-  <si>
-    <t>12.69799662447257 - 9.383578059071729y + (-0.5 + x)*(y^2)</t>
-  </si>
-  <si>
-    <t>-12.69799662447257</t>
-  </si>
-  <si>
-    <t>J_0_L0_v</t>
-  </si>
-  <si>
-    <t>0.69</t>
-  </si>
-  <si>
-    <t>6.4</t>
-  </si>
-  <si>
-    <t>5.206 - 1.37y</t>
-  </si>
-  <si>
-    <t>-6.206</t>
-  </si>
-  <si>
-    <t>J_0_LP_v</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>-2.4950632911392407 + 0.6329113924050633y</t>
-  </si>
-  <si>
-    <t>1.4050632911392404</t>
-  </si>
-  <si>
-    <t>J_Ne_L0_v</t>
-  </si>
-  <si>
-    <t>0.32</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>2.09</t>
-  </si>
-  <si>
-    <t>3.8</t>
+    <t>2.89</t>
+  </si>
+  <si>
+    <t>0.30000000000000004</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-2.1753227848101258</t>
+    <t>-7.358852525252526</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-84.36468</t>
-  </si>
-  <si>
-    <t>-18.175055687763706</t>
+    <t>42.674960000000006</t>
+  </si>
+  <si>
+    <t>-59.015440686868686</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -661,21 +664,21 @@
         <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>30</v>
@@ -719,7 +722,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -727,10 +730,10 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -748,12 +751,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -771,17 +774,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -799,12 +802,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>2.37</v>
+        <v>1.98</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/nonconvex/MitsosBarton2006Ex323/Experimentos_Generador/MitsosBarton2006Ex323__Strong_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/nonconvex/MitsosBarton2006Ex323/Experimentos_Generador/MitsosBarton2006Ex323__Strong_Stationarygenerator_alpha_non_zero.xlsx
@@ -57,34 +57,34 @@
     <t>MIU_value</t>
   </si>
   <si>
-    <t>2.89 - x</t>
-  </si>
-  <si>
-    <t>-3.89</t>
+    <t>1.9399999999999995 - x</t>
+  </si>
+  <si>
+    <t>-2.9399999999999995</t>
   </si>
   <si>
     <t>J_0_g</t>
   </si>
   <si>
-    <t>0.68</t>
-  </si>
-  <si>
-    <t>-2.89 + x</t>
-  </si>
-  <si>
-    <t>1.8900000000000001</t>
-  </si>
-  <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>72.5789 + x - y - 9(x^2)</t>
-  </si>
-  <si>
-    <t>-71.5789</t>
-  </si>
-  <si>
-    <t>0.97</t>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>-1.9399999999999997 + x</t>
+  </si>
+  <si>
+    <t>0.9399999999999997</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>35.63239999999999 + x - y - 9(x^2)</t>
+  </si>
+  <si>
+    <t>-34.63239999999999</t>
+  </si>
+  <si>
+    <t>0.44</t>
   </si>
   <si>
     <t>Lambda_value</t>
@@ -96,79 +96,79 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-1.1182333333333334 + 3.0104444444444445y + (-0.5 + x)*(y^2)</t>
-  </si>
-  <si>
-    <t>1.1182333333333334</t>
+    <t>-33.14354285714286 + 3.6297142857142894y + (-0.5 + x)*(y^2)</t>
+  </si>
+  <si>
+    <t>33.14354285714286</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>3.4000000000000004</t>
-  </si>
-  <si>
-    <t>8.8</t>
-  </si>
-  <si>
-    <t>0.29400000000000004 - 0.98y</t>
-  </si>
-  <si>
-    <t>-1.294</t>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>3.3000000000000003</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-1</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>6.800000000000001</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>-2.1942424242424243 + 4.747474747474747y</t>
-  </si>
-  <si>
-    <t>0.42424242424242453</t>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>-32.2042857142857 + 8.571428571428571y</t>
+  </si>
+  <si>
+    <t>30.714285714285708</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.89</t>
-  </si>
-  <si>
-    <t>9.6</t>
-  </si>
-  <si>
-    <t>9.399999999999999</t>
+    <t>5.699999999999999</t>
+  </si>
+  <si>
+    <t>5.4</t>
   </si>
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>2.89</t>
-  </si>
-  <si>
-    <t>0.30000000000000004</t>
+    <t>1.9399999999999997</t>
+  </si>
+  <si>
+    <t>3.6999999999999993</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-7.358852525252526</t>
+    <t>-9.828571428571427</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>42.674960000000006</t>
-  </si>
-  <si>
-    <t>-59.015440686868686</t>
+    <t>-35.510519999999985</t>
+  </si>
+  <si>
+    <t>-96.213184</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -678,27 +678,27 @@
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>36</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1.98</v>
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>
